--- a/StructureDefinition-us-core-observation-adi-documentation2.xlsx
+++ b/StructureDefinition-us-core-observation-adi-documentation2.xlsx
@@ -551,7 +551,7 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-adi-documentreference|Resource)
 </t>
   </si>
   <si>

--- a/StructureDefinition-us-core-observation-adi-documentation2.xlsx
+++ b/StructureDefinition-us-core-observation-adi-documentation2.xlsx
@@ -1010,10 +1010,10 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>Yes|No|Unknown|Not Asked (Use Snomed CT values in final version?)</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/yes-no-unknown-not-asked</t>
+    <t>Answer Set with Yes No and Unknowns</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1912,8 +1912,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.59375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
